--- a/MeishinoCH552_BOM_JLCSMT.xlsx
+++ b/MeishinoCH552_BOM_JLCSMT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akita/Desktop/PCB/MeishinoCH552/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akita/Documents/GitHub/MeishinoCH552/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AA105A-C3AE-EC4A-B991-25461CCF4058}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339A94CD-A71C-B54E-9498-0368AD31AD35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="13280" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14080" yWindow="1920" windowWidth="13280" windowHeight="12540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Comment</t>
   </si>
@@ -185,7 +185,21 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>C138548</t>
+    <t>C12624</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>C23186</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>明るすぎるので在庫あればC138548のほうがよい</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">アカルスギル </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ザイコ </t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -269,7 +283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,6 +307,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -651,7 +668,7 @@
     <col min="4" max="4" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1">
+    <row r="1" spans="1:5" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -665,7 +682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -679,7 +696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -693,7 +710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -707,7 +724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -721,7 +738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -731,11 +748,14 @@
       <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="E6" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -749,7 +769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -763,7 +783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -777,7 +797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -788,7 +808,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
